--- a/AssessmentTwo/src/test/resources/testdata/testdata.xlsx
+++ b/AssessmentTwo/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="4185" activeTab="1"/>
+    <workbookView windowWidth="13455" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="heatclinic" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>iPhoneDetail</t>
   </si>
   <si>
-    <t>The Ninja Store</t>
+    <t>The Ninja Stor</t>
   </si>
   <si>
     <t>Availability: In Stock</t>
@@ -93,9 +93,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,10 +122,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -139,7 +148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +156,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -161,63 +178,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,6 +195,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -237,7 +230,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,31 +259,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,31 +325,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,115 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,16 +454,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,16 +478,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,17 +518,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,11 +536,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,130 +573,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,7 +1118,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>

--- a/AssessmentTwo/src/test/resources/testdata/testdata.xlsx
+++ b/AssessmentTwo/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="4680" activeTab="1"/>
+    <workbookView windowWidth="13455" windowHeight="4755"/>
   </bookViews>
   <sheets>
     <sheet name="heatclinic" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ExpectedUrl</t>
   </si>
@@ -28,6 +28,9 @@
     <t>ProductDetail</t>
   </si>
   <si>
+    <t>ProductQuantity</t>
+  </si>
+  <si>
     <t>http://10.10.10.232:8080/</t>
   </si>
   <si>
@@ -61,10 +64,10 @@
     <t>Page Title</t>
   </si>
   <si>
-    <t>MackbookQuantity</t>
-  </si>
-  <si>
-    <t>IphoneQuantity</t>
+    <t>Mackbook detail</t>
+  </si>
+  <si>
+    <t>Iphone detail</t>
   </si>
   <si>
     <t>MacbookDetail</t>
@@ -73,7 +76,13 @@
     <t>iPhoneDetail</t>
   </si>
   <si>
-    <t>The Ninja Stor</t>
+    <t>The Ninja Store</t>
+  </si>
+  <si>
+    <t>macbook</t>
+  </si>
+  <si>
+    <t>iphone</t>
   </si>
   <si>
     <t>Availability: In Stock</t>
@@ -91,9 +100,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -122,9 +132,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,113 +223,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,187 +269,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,6 +460,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,9 +519,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,79 +560,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -573,134 +583,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,6 +719,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
@@ -1032,20 +1045,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="40.4285714285714" customWidth="1"/>
     <col min="2" max="2" width="18.2857142857143" customWidth="1"/>
     <col min="3" max="3" width="27.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,47 +1069,56 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>14.99</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
+      <c r="A6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1117,8 +1140,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1132,45 +1155,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1" spans="2:5">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="1">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" ht="34" customHeight="1" spans="3:5">
-      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/AssessmentTwo/src/test/resources/testdata/testdata.xlsx
+++ b/AssessmentTwo/src/test/resources/testdata/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13455" windowHeight="4755"/>
+    <workbookView windowWidth="13455" windowHeight="4755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="heatclinic" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ExpectedUrl</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>Availability: In Stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>$602.00
@@ -102,8 +108,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -132,6 +138,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,22 +167,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +183,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -177,39 +199,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,7 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,7 +239,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,15 +253,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,181 +275,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,11 +469,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,17 +549,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -539,24 +558,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,15 +571,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,130 +589,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -724,6 +730,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1047,7 +1059,7 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1140,8 +1152,8 @@
   <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1188,17 +1200,17 @@
       </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="2:5">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
+      <c r="B3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
